--- a/Daily/ADF - BIC/First Difference.xlsx
+++ b/Daily/ADF - BIC/First Difference.xlsx
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14871.64347369924</v>
+        <v>27914.21207243469</v>
       </c>
       <c r="C2" t="n">
-        <v>14878.62834051386</v>
+        <v>27921.32938862512</v>
       </c>
       <c r="D2" t="n">
-        <v>14863.80062273804</v>
+        <v>27906.36776273263</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11286.46044716046</v>
+        <v>26446.41992211817</v>
       </c>
       <c r="C3" t="n">
-        <v>11294.30856851786</v>
+        <v>26454.26211930277</v>
       </c>
       <c r="D3" t="n">
-        <v>11280.77756838235</v>
+        <v>26440.765790532</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10563.94895947564</v>
+        <v>25983.28322403993</v>
       </c>
       <c r="C4" t="n">
-        <v>10571.11974584168</v>
+        <v>25990.74248327107</v>
       </c>
       <c r="D4" t="n">
-        <v>10562.83732932089</v>
+        <v>25981.87591732652</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11062.06086739309</v>
+        <v>25516.32818551394</v>
       </c>
       <c r="C5" t="n">
-        <v>11069.77639885273</v>
+        <v>25524.13797013312</v>
       </c>
       <c r="D5" t="n">
-        <v>11058.91391942945</v>
+        <v>25513.16655319681</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9645.470003546656</v>
+        <v>23351.07159582833</v>
       </c>
       <c r="C6" t="n">
-        <v>9653.285950557198</v>
+        <v>23358.90462760581</v>
       </c>
       <c r="D6" t="n">
-        <v>9639.038697548438</v>
+        <v>23344.62491735642</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-20.67528206551599</v>
+        <v>-20.63357424241809</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-28.30249404721999</v>
+        <v>-28.31031947750668</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-52.36106343482984</v>
+        <v>-52.21110926835102</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-30.48605255639875</v>
+        <v>-30.5198301780242</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17.07542449173516</v>
+        <v>-17.05771637207947</v>
       </c>
       <c r="C6" t="n">
-        <v>1.420531353686436e-28</v>
+        <v>1.456948593001405e-28</v>
       </c>
       <c r="D6" t="n">
         <v>11</v>

--- a/Daily/ADF - BIC/First Difference.xlsx
+++ b/Daily/ADF - BIC/First Difference.xlsx
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27914.21207243469</v>
+        <v>14871.64347369924</v>
       </c>
       <c r="C2" t="n">
-        <v>27921.32938862512</v>
+        <v>14878.62834051386</v>
       </c>
       <c r="D2" t="n">
-        <v>27906.36776273263</v>
+        <v>14863.80062273804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26446.41992211817</v>
+        <v>11286.46044716046</v>
       </c>
       <c r="C3" t="n">
-        <v>26454.26211930277</v>
+        <v>11294.30856851786</v>
       </c>
       <c r="D3" t="n">
-        <v>26440.765790532</v>
+        <v>11280.77756838235</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25983.28322403993</v>
+        <v>10563.94895947564</v>
       </c>
       <c r="C4" t="n">
-        <v>25990.74248327107</v>
+        <v>10571.11974584168</v>
       </c>
       <c r="D4" t="n">
-        <v>25981.87591732652</v>
+        <v>10562.83732932089</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25516.32818551394</v>
+        <v>11062.06086739309</v>
       </c>
       <c r="C5" t="n">
-        <v>25524.13797013312</v>
+        <v>11069.77639885273</v>
       </c>
       <c r="D5" t="n">
-        <v>25513.16655319681</v>
+        <v>11058.91391942945</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23351.07159582833</v>
+        <v>9645.470003546656</v>
       </c>
       <c r="C6" t="n">
-        <v>23358.90462760581</v>
+        <v>9653.285950557198</v>
       </c>
       <c r="D6" t="n">
-        <v>23344.62491735642</v>
+        <v>9639.038697548438</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-20.63357424241809</v>
+        <v>-20.67528206551599</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-28.31031947750668</v>
+        <v>-28.30249404721999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-52.21110926835102</v>
+        <v>-52.36106343482984</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-30.5198301780242</v>
+        <v>-30.48605255639875</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17.05771637207947</v>
+        <v>-17.07542449173516</v>
       </c>
       <c r="C6" t="n">
-        <v>1.456948593001405e-28</v>
+        <v>1.420531353686436e-28</v>
       </c>
       <c r="D6" t="n">
         <v>11</v>
